--- a/biology/Biochimie/Journal_of_Structural_Biology/Journal_of_Structural_Biology.xlsx
+++ b/biology/Biochimie/Journal_of_Structural_Biology/Journal_of_Structural_Biology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Journal of Structural Biology (abrégé en J. Struct. Biol.) est une revue scientifique à comité de lecture. Ce journal mensuel présente des articles originaux dans le domaine de l'analyse de la matière vivante afin de comprendre les fonctions biologiques en termes de structure moléculaire[1].
-D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 3,231 en 2014. Actuellement, la direction éditoriale est assurée par A. C. Steven et W. Baumeister[2].
+Journal of Structural Biology (abrégé en J. Struct. Biol.) est une revue scientifique à comité de lecture. Ce journal mensuel présente des articles originaux dans le domaine de l'analyse de la matière vivante afin de comprendre les fonctions biologiques en termes de structure moléculaire.
+D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 3,231 en 2014. Actuellement, la direction éditoriale est assurée par A. C. Steven et W. Baumeister.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Au cours de son histoire, le journal a plusieurs fois changé de nom:
-Journal of Ultrastructure Research, 1957-1985,  (ISSN 0022-5320)[3]
-Journal of Ultrastructure and Molecular Structure Research, 1986-1989,  (ISSN 0889-1605)[4]
+Journal of Ultrastructure Research, 1957-1985,  (ISSN 0022-5320)
+Journal of Ultrastructure and Molecular Structure Research, 1986-1989,  (ISSN 0889-1605)
 Journal of Structural Biology, 1990-en cours,  (ISSN 1047-8477)</t>
         </is>
       </c>
